--- a/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A9497DB-2D21-4ABD-9F2B-183499B0F0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF258C95-94AB-4616-AA29-789BCAB18F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B00500A-DDE8-40AB-9777-52E0E4C4D7ED}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E25F1D14-4A87-4FCA-AD06-522AAAC2BD99}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -455,379 +455,379 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
+    <t>59,09%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>74,18%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>63,45%</t>
   </si>
   <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
+    <t>52,58%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC461739-24CF-4228-A3D6-18A0BFB855F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DA9F5E-0102-4AF3-BC3A-D304C81DD259}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310848EA-DEB3-4D9C-B850-9EFBE2EB7019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D87E56C-6F73-4B54-AD39-1D8C2BC6FA17}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3677,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AE094A-F291-4A90-80F0-1EAB63C85510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4755D4-0274-4CB3-BEC7-D406D5A063DB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4896,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A077A1A7-4378-4BE8-95CA-29D2FB8A02E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7358DC-FFB9-41EC-9092-9A623DAA1ECA}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5563,7 +5563,7 @@
         <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>1022787</v>
+        <v>1022786</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>206</v>
@@ -5614,7 +5614,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5843,7 +5843,7 @@
         <v>682</v>
       </c>
       <c r="D20" s="7">
-        <v>469514</v>
+        <v>469515</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>236</v>
@@ -5894,7 +5894,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6028,7 +6028,7 @@
         <v>5570</v>
       </c>
       <c r="N23" s="7">
-        <v>4852568</v>
+        <v>4852569</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>260</v>
@@ -6079,7 +6079,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF258C95-94AB-4616-AA29-789BCAB18F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{832FE404-D986-4ECC-A21C-B19673DCAD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E25F1D14-4A87-4FCA-AD06-522AAAC2BD99}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FC232D4-F129-4A25-BC03-E3F453C6F3D0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -350,7 +350,7 @@
     <t>99,93%</t>
   </si>
   <si>
-    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2015 (Tasa respuesta: 43,19%)</t>
+    <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2016 (Tasa respuesta: 43,19%)</t>
   </si>
   <si>
     <t>0,62%</t>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DA9F5E-0102-4AF3-BC3A-D304C81DD259}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73CF846-C590-4D08-B451-2D7C152A6ACB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D87E56C-6F73-4B54-AD39-1D8C2BC6FA17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3C673-AED3-42FE-973C-58A526BA9291}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3677,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4755D4-0274-4CB3-BEC7-D406D5A063DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C975A6BF-22EE-4454-AB92-000F572DD254}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4314,7 +4314,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -4365,7 +4365,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312667</v>
+        <v>312668</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4896,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7358DC-FFB9-41EC-9092-9A623DAA1ECA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E132A93-5AB1-487B-B22E-7C3F46BCA3BC}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{832FE404-D986-4ECC-A21C-B19673DCAD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB09E281-358B-4714-94F8-5919F270AD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0FC232D4-F129-4A25-BC03-E3F453C6F3D0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52A919D4-6DAE-4D04-9522-6B1149662475}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -455,379 +455,379 @@
     <t>11,1%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
   </si>
   <si>
     <t>18,93%</t>
   </si>
   <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>88,9%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
   </si>
   <si>
     <t>81,07%</t>
   </si>
   <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>85,11%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>18,09%</t>
   </si>
   <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
   </si>
   <si>
     <t>81,91%</t>
   </si>
   <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>79,33%</t>
   </si>
   <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>80,52%</t>
   </si>
   <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>17,67%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>23,86%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
   </si>
   <si>
     <t>82,33%</t>
   </si>
   <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
   </si>
   <si>
     <t>70,22%</t>
   </si>
   <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>73,52%</t>
   </si>
   <si>
     <t>76,14%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>23,19%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
   </si>
   <si>
     <t>30,48%</t>
   </si>
   <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
   </si>
   <si>
     <t>76,81%</t>
   </si>
   <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
   </si>
   <si>
     <t>69,52%</t>
   </si>
   <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>29,46%</t>
   </si>
   <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>43,7%</t>
   </si>
   <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>70,54%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>56,3%</t>
   </si>
   <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>63,45%</t>
   </si>
   <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
   </si>
   <si>
     <t>32,71%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
   </si>
   <si>
     <t>64,4%</t>
   </si>
   <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>47,5%</t>
-  </si>
-  <si>
-    <t>62,1%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
   </si>
   <si>
     <t>67,29%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>35,6%</t>
   </si>
   <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
   </si>
   <si>
     <t>23,36%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
   </si>
   <si>
     <t>32,48%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
   </si>
   <si>
     <t>76,64%</t>
   </si>
   <si>
-    <t>74,77%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>59,39%</t>
   </si>
   <si>
-    <t>52,58%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>61,68%</t>
   </si>
   <si>
     <t>67,52%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1239,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73CF846-C590-4D08-B451-2D7C152A6ACB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988FE8F0-FF10-45E4-B033-4117AFB0F075}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2458,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B3C673-AED3-42FE-973C-58A526BA9291}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37140DA1-8087-48EE-B50F-6599B4565796}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3677,7 +3677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C975A6BF-22EE-4454-AB92-000F572DD254}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A868643-E2BF-49D8-A804-078BC4226FA5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4314,7 +4314,7 @@
         <v>283</v>
       </c>
       <c r="D14" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -4365,7 +4365,7 @@
         <v>283</v>
       </c>
       <c r="D15" s="7">
-        <v>312668</v>
+        <v>312667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4896,7 +4896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E132A93-5AB1-487B-B22E-7C3F46BCA3BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9B5B1-8C8B-4B91-B7BF-0BDDD414A619}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5563,7 +5563,7 @@
         <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>1022786</v>
+        <v>1022787</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>206</v>
@@ -5614,7 +5614,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5843,7 +5843,7 @@
         <v>682</v>
       </c>
       <c r="D20" s="7">
-        <v>469515</v>
+        <v>469514</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>236</v>
@@ -5894,7 +5894,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -6028,7 +6028,7 @@
         <v>5570</v>
       </c>
       <c r="N23" s="7">
-        <v>4852569</v>
+        <v>4852568</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>260</v>
@@ -6079,7 +6079,7 @@
         <v>8735</v>
       </c>
       <c r="N24" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A21_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB09E281-358B-4714-94F8-5919F270AD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{501B47EE-13D5-4CBC-BFC1-13874CF0C7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52A919D4-6DAE-4D04-9522-6B1149662475}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{80B05632-B72E-416E-B645-9EA3136705EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="296">
   <si>
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2007 (Tasa respuesta: 49,79%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -107,7 +107,7 @@
     <t>99,73%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,34%</t>
@@ -128,7 +128,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,44%</t>
@@ -149,7 +149,7 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,66%</t>
@@ -170,7 +170,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,77%</t>
@@ -191,25 +191,46 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -320,16 +341,40 @@
     <t>98,83%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
   </si>
   <si>
     <t>0,12%</t>
@@ -425,22 +470,28 @@
     <t>99,18%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>0,16%</t>
@@ -452,382 +503,430 @@
     <t>Población que ha consumido medicinas para el dolor en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,57%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>63,52%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
+  </si>
+  <si>
+    <t>59,24%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>27,31%</t>
   </si>
   <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>72,69%</t>
   </si>
   <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>56,3%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>65,88%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>64,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
   </si>
   <si>
     <t>48,43%</t>
   </si>
   <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>61,68%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>63,59%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
   </si>
 </sst>
 </file>
@@ -1239,8 +1338,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988FE8F0-FF10-45E4-B033-4117AFB0F075}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D282788-BACF-4B2E-8DD2-3074D2C5E5BB}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2183,10 +2282,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D20" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
@@ -2198,10 +2297,10 @@
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I20" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -2213,10 +2312,10 @@
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N20" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
@@ -2234,10 +2333,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D21" s="7">
-        <v>83407</v>
+        <v>61094</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -2249,10 +2348,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="I21" s="7">
-        <v>55860</v>
+        <v>33561</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2264,10 +2363,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="N21" s="7">
-        <v>139267</v>
+        <v>94655</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2281,7 +2380,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2299,7 +2398,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -2314,7 +2413,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2329,7 +2428,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2338,46 +2437,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1878</v>
+        <v>23</v>
       </c>
       <c r="D23" s="7">
-        <v>1947662</v>
+        <v>22313</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1364</v>
+        <v>19</v>
       </c>
       <c r="I23" s="7">
-        <v>1399722</v>
+        <v>22299</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>3242</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>3347384</v>
+        <v>44612</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -2389,63 +2488,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>23</v>
+      </c>
+      <c r="D24" s="7">
+        <v>22313</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>19</v>
+      </c>
+      <c r="I24" s="7">
+        <v>22299</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>44612</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1878</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1947662</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1364</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1399722</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>3242</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>3347384</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1878</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1947662</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1364</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1399722</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3242</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3347384</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2458,8 +2713,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37140DA1-8087-48EE-B50F-6599B4565796}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9D42B6-30C1-45A0-848E-9E708287DDDD}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2475,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2588,7 +2843,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2603,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2618,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2651,7 +2906,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2666,7 +2921,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2743,7 +2998,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2758,7 +3013,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -2773,7 +3028,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +3046,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -2806,7 +3061,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2821,7 +3076,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -2898,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2913,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2928,7 +3183,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2961,7 +3216,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -2976,7 +3231,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3053,7 +3308,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3068,7 +3323,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3083,7 +3338,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,7 +3356,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -3116,7 +3371,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3131,7 +3386,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -3208,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3223,7 +3478,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3238,7 +3493,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3256,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -3271,7 +3526,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3286,7 +3541,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3363,7 +3618,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3378,7 +3633,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -3393,7 +3648,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,46 +3657,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D20" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I20" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N20" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -3453,10 +3708,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>51727</v>
+        <v>35400</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -3468,10 +3723,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="I21" s="7">
-        <v>40554</v>
+        <v>28395</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3483,10 +3738,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="N21" s="7">
-        <v>92281</v>
+        <v>63795</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3500,7 +3755,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3518,7 +3773,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3533,7 +3788,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3548,7 +3803,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,46 +3812,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1618</v>
+        <v>15</v>
       </c>
       <c r="D23" s="7">
-        <v>1696771</v>
+        <v>16327</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>984</v>
+        <v>10</v>
       </c>
       <c r="I23" s="7">
-        <v>1058638</v>
+        <v>12159</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2602</v>
+        <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>2755408</v>
+        <v>28486</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -3608,63 +3863,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7">
+        <v>16327</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12159</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>25</v>
+      </c>
+      <c r="N24" s="7">
+        <v>28486</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1618</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1696771</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>984</v>
       </c>
-      <c r="I24" s="7">
-        <v>1058638</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I26" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2602</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2755408</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1618</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1696771</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>984</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1058637</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2602</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2755408</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3677,8 +4088,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A868643-E2BF-49D8-A804-078BC4226FA5}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C536C58-AC20-47E4-9AC7-4E8ACA28CA8A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3694,7 +4105,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3807,7 +4218,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3822,7 +4233,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3837,7 +4248,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,7 +4266,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3870,7 +4281,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3885,7 +4296,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3962,7 +4373,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3992,7 +4403,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,7 +4421,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -4040,7 +4451,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -4117,7 +4528,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4132,7 +4543,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4147,7 +4558,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,7 +4576,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4180,7 +4591,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -4195,7 +4606,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -4272,7 +4683,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4287,7 +4698,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4302,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,7 +4731,7 @@
         <v>17</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>19</v>
@@ -4335,7 +4746,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -4350,7 +4761,7 @@
         <v>17</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>19</v>
@@ -4427,7 +4838,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4442,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4457,7 +4868,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4475,7 +4886,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4490,7 +4901,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4505,7 +4916,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4582,7 +4993,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4597,7 +5008,7 @@
         <v>12</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
@@ -4612,7 +5023,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,46 +5032,46 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I20" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M20" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N20" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>19</v>
@@ -4672,10 +5083,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="D21" s="7">
-        <v>76755</v>
+        <v>53730</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -4687,10 +5098,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="I21" s="7">
-        <v>50589</v>
+        <v>31344</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4702,10 +5113,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="N21" s="7">
-        <v>127344</v>
+        <v>85073</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4719,7 +5130,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4737,7 +5148,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4752,7 +5163,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -4767,7 +5178,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,46 +5187,46 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>1610</v>
+        <v>27</v>
       </c>
       <c r="D23" s="7">
-        <v>1704362</v>
+        <v>23025</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="7">
-        <v>1227</v>
+        <v>15</v>
       </c>
       <c r="I23" s="7">
-        <v>1245925</v>
+        <v>19246</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M23" s="7">
-        <v>2837</v>
+        <v>42</v>
       </c>
       <c r="N23" s="7">
-        <v>2950287</v>
+        <v>42271</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>19</v>
@@ -4827,63 +5238,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>27</v>
+      </c>
+      <c r="D24" s="7">
+        <v>23025</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>15</v>
+      </c>
+      <c r="I24" s="7">
+        <v>19246</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>42</v>
+      </c>
+      <c r="N24" s="7">
+        <v>42271</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
         <v>1610</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D26" s="7">
         <v>1704362</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="7">
         <v>1227</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I26" s="7">
         <v>1245925</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="7">
         <v>2837</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N26" s="7">
         <v>2950287</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="O26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1610</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1704362</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1227</v>
+      </c>
+      <c r="I27" s="7">
+        <v>1245925</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
+        <v>2837</v>
+      </c>
+      <c r="N27" s="7">
+        <v>2950287</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4896,8 +5463,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B9B5B1-8C8B-4B91-B7BF-0BDDD414A619}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58542D3-8EA2-43B2-9F5C-3C8F9998CC4A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4913,7 +5480,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5017,46 +5584,46 @@
         <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>41922</v>
+        <v>46435</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>67179</v>
+        <v>59490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
       </c>
       <c r="N4" s="7">
-        <v>109101</v>
+        <v>105925</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5068,46 +5635,46 @@
         <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>335757</v>
+        <v>353552</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>168</v>
       </c>
       <c r="I5" s="7">
-        <v>287778</v>
+        <v>253710</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>321</v>
       </c>
       <c r="N5" s="7">
-        <v>623535</v>
+        <v>607262</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,7 +5686,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>19</v>
@@ -5134,7 +5701,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -5149,7 +5716,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -5172,46 +5739,46 @@
         <v>51</v>
       </c>
       <c r="D7" s="7">
-        <v>77497</v>
+        <v>80559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
         <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>103042</v>
+        <v>97484</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>145</v>
       </c>
       <c r="N7" s="7">
-        <v>180539</v>
+        <v>178043</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,46 +5790,46 @@
         <v>251</v>
       </c>
       <c r="D8" s="7">
-        <v>350899</v>
+        <v>342988</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>366</v>
       </c>
       <c r="I8" s="7">
-        <v>395535</v>
+        <v>414020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>617</v>
       </c>
       <c r="N8" s="7">
-        <v>746434</v>
+        <v>757008</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,7 +5841,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -5289,7 +5856,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -5304,7 +5871,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -5327,46 +5894,46 @@
         <v>97</v>
       </c>
       <c r="D10" s="7">
-        <v>98462</v>
+        <v>97735</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>256</v>
       </c>
       <c r="I10" s="7">
-        <v>173747</v>
+        <v>163912</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>353</v>
       </c>
       <c r="N10" s="7">
-        <v>272209</v>
+        <v>261647</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5378,46 +5945,46 @@
         <v>449</v>
       </c>
       <c r="D11" s="7">
-        <v>458790</v>
+        <v>438603</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>590</v>
       </c>
       <c r="I11" s="7">
-        <v>409729</v>
+        <v>378556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M11" s="7">
         <v>1039</v>
       </c>
       <c r="N11" s="7">
-        <v>868518</v>
+        <v>817159</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,7 +5996,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -5444,7 +6011,7 @@
         <v>846</v>
       </c>
       <c r="I12" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -5459,7 +6026,7 @@
         <v>1392</v>
       </c>
       <c r="N12" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -5482,46 +6049,46 @@
         <v>164</v>
       </c>
       <c r="D13" s="7">
-        <v>167879</v>
+        <v>160751</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>428</v>
       </c>
       <c r="I13" s="7">
-        <v>280586</v>
+        <v>260063</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>592</v>
       </c>
       <c r="N13" s="7">
-        <v>448465</v>
+        <v>420814</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,46 +6100,46 @@
         <v>501</v>
       </c>
       <c r="D14" s="7">
-        <v>556111</v>
+        <v>727035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>713</v>
       </c>
       <c r="I14" s="7">
-        <v>466675</v>
+        <v>452818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>1214</v>
       </c>
       <c r="N14" s="7">
-        <v>1022787</v>
+        <v>1179853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,7 +6151,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -5599,7 +6166,7 @@
         <v>1141</v>
       </c>
       <c r="I15" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -5614,7 +6181,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -5637,46 +6204,46 @@
         <v>196</v>
       </c>
       <c r="D16" s="7">
-        <v>176501</v>
+        <v>167352</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>437</v>
       </c>
       <c r="I16" s="7">
-        <v>259378</v>
+        <v>238581</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>633</v>
       </c>
       <c r="N16" s="7">
-        <v>435879</v>
+        <v>405932</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,46 +6255,46 @@
         <v>466</v>
       </c>
       <c r="D17" s="7">
-        <v>422585</v>
+        <v>392885</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>563</v>
       </c>
       <c r="I17" s="7">
-        <v>334198</v>
+        <v>306306</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="M17" s="7">
         <v>1029</v>
       </c>
       <c r="N17" s="7">
-        <v>756783</v>
+        <v>699192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,7 +6306,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>19</v>
@@ -5754,7 +6321,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593576</v>
+        <v>544887</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -5769,7 +6336,7 @@
         <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>1192662</v>
+        <v>1105124</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -5789,49 +6356,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>346</v>
+        <v>156</v>
       </c>
       <c r="D19" s="7">
-        <v>228240</v>
+        <v>100556</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
-        <v>1038</v>
+        <v>436</v>
       </c>
       <c r="I19" s="7">
-        <v>660373</v>
+        <v>417128</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
-        <v>1384</v>
+        <v>592</v>
       </c>
       <c r="N19" s="7">
-        <v>888614</v>
+        <v>517683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,49 +6407,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>682</v>
+        <v>414</v>
       </c>
       <c r="D20" s="7">
-        <v>469514</v>
+        <v>267609</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="H20" s="7">
-        <v>668</v>
+        <v>391</v>
       </c>
       <c r="I20" s="7">
-        <v>364998</v>
+        <v>191240</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="M20" s="7">
-        <v>1350</v>
+        <v>805</v>
       </c>
       <c r="N20" s="7">
-        <v>834512</v>
+        <v>458850</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,10 +6458,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
@@ -5906,10 +6473,10 @@
         <v>19</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>827</v>
       </c>
       <c r="I21" s="7">
-        <v>1025371</v>
+        <v>608368</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -5921,10 +6488,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1397</v>
       </c>
       <c r="N21" s="7">
-        <v>1723126</v>
+        <v>976533</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -5938,55 +6505,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>873</v>
+        <v>190</v>
       </c>
       <c r="D22" s="7">
-        <v>790501</v>
+        <v>113511</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>261</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="H22" s="7">
-        <v>2292</v>
+        <v>602</v>
       </c>
       <c r="I22" s="7">
-        <v>1544305</v>
+        <v>285297</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="M22" s="7">
-        <v>3165</v>
+        <v>792</v>
       </c>
       <c r="N22" s="7">
-        <v>2334807</v>
+        <v>398809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>251</v>
+        <v>266</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>252</v>
+        <v>267</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,49 +6562,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>2502</v>
+        <v>268</v>
       </c>
       <c r="D23" s="7">
-        <v>2593657</v>
+        <v>169248</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
-        <v>3068</v>
+        <v>277</v>
       </c>
       <c r="I23" s="7">
-        <v>2258913</v>
+        <v>139428</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="M23" s="7">
-        <v>5570</v>
+        <v>545</v>
       </c>
       <c r="N23" s="7">
-        <v>4852568</v>
+        <v>308675</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,63 +6613,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424725</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707484</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>873</v>
+      </c>
+      <c r="D25" s="7">
+        <v>766900</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2292</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1521954</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3165</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2288854</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2502</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2691920</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3068</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2136079</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5570</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4827999</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3375</v>
       </c>
-      <c r="D24" s="7">
-        <v>3384158</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3458820</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="7">
         <v>5360</v>
       </c>
-      <c r="I24" s="7">
-        <v>3803218</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3658033</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>8735</v>
       </c>
-      <c r="N24" s="7">
-        <v>7187375</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>63</v>
+      <c r="N27" s="7">
+        <v>7116853</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
